--- a/benchmarking/results/gold_predictions_gpt-4o_cot_fewshot_1_2_eval.xlsx
+++ b/benchmarking/results/gold_predictions_gpt-4o_cot_fewshot_1_2_eval.xlsx
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
@@ -9924,10 +9924,10 @@
         <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
         <v>3</v>
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
         <v>3</v>
@@ -19859,7 +19859,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
         <v>2</v>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
         <v>2</v>
@@ -21073,10 +21073,10 @@
         <v>1</v>
       </c>
       <c r="Y130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA130" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N152" t="n">
         <v>3</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N154" t="n">
         <v>3</v>
@@ -25273,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="Z160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA160" t="n">
         <v>0</v>
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N173" t="n">
         <v>2</v>
@@ -27449,7 +27449,7 @@
         <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N176" t="n">
         <v>3</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181" t="n">
         <v>2</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182" t="n">
         <v>1</v>
@@ -28305,10 +28305,10 @@
         <v>1</v>
       </c>
       <c r="Y182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA182" t="n">
         <v>0</v>
@@ -28936,7 +28936,7 @@
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187" t="n">
         <v>1</v>
@@ -28972,10 +28972,10 @@
         <v>1</v>
       </c>
       <c r="Y187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA187" t="n">
         <v>0</v>
@@ -29987,7 +29987,7 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
         <v>1</v>
@@ -30023,10 +30023,10 @@
         <v>2</v>
       </c>
       <c r="Y195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA195" t="n">
         <v>0</v>
